--- a/Instances/G0041331_Lumpy_b2_fe25_el_rk25_ll0_l20_H08_c2_A4_a0.1.xlsx
+++ b/Instances/G0041331_Lumpy_b2_fe25_el_rk25_ll0_l20_H08_c2_A4_a0.1.xlsx
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1229,13 +1229,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1267,7 +1267,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1311,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
         <v>0.1</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1343,7 +1343,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1381,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1601,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1630,13 +1630,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1668,7 +1668,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1744,7 +1744,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>

--- a/Instances/G0041331_Lumpy_b2_fe25_el_rk25_ll0_l20_H08_c2_A4_a0.1.xlsx
+++ b/Instances/G0041331_Lumpy_b2_fe25_el_rk25_ll0_l20_H08_c2_A4_a0.1.xlsx
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1343,7 +1343,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1378,10 +1378,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1744,7 +1744,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1779,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>

--- a/Instances/G0041331_Lumpy_b2_fe25_el_rk25_ll0_l20_H08_c2_A4_a0.1.xlsx
+++ b/Instances/G0041331_Lumpy_b2_fe25_el_rk25_ll0_l20_H08_c2_A4_a0.1.xlsx
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1343,7 +1343,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1595,10 +1595,10 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1633,10 +1633,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1671,7 +1671,7 @@
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1709,13 +1709,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1744,10 +1744,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
